--- a/_Project/_ProjectF/엑셀파일/DB/DB_최종.xlsx
+++ b/_Project/_ProjectF/엑셀파일/DB/DB_최종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share-422\_Final - 경매 + 쇼핑몰 (아나바다.ver2)\엑셀파일\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV-documents\my-study\_Project\_ProjectF\엑셀파일\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF3702-27BC-4B99-97CA-399021B39248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8DE7D2-0022-4B8B-8E46-4C9AACAA2B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
+    <workbookView xWindow="1290" yWindow="0" windowWidth="21600" windowHeight="12630" firstSheet="12" activeTab="20" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,12 @@
     <sheet name="환불" sheetId="19" r:id="rId18"/>
     <sheet name="리뷰" sheetId="16" r:id="rId19"/>
     <sheet name="관심물품" sheetId="8" r:id="rId20"/>
-    <sheet name="문의사항" sheetId="9" r:id="rId21"/>
-    <sheet name="채팅방" sheetId="23" r:id="rId22"/>
-    <sheet name="채팅 메시지" sheetId="24" r:id="rId23"/>
-    <sheet name="UI흐름" sheetId="10" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId25"/>
+    <sheet name="관심유저" sheetId="29" r:id="rId21"/>
+    <sheet name="문의사항" sheetId="9" r:id="rId22"/>
+    <sheet name="채팅방" sheetId="23" r:id="rId23"/>
+    <sheet name="채팅 메시지" sheetId="24" r:id="rId24"/>
+    <sheet name="UI흐름" sheetId="10" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="693">
   <si>
     <t>NULL</t>
   </si>
@@ -265,10 +266,6 @@
   </si>
   <si>
     <t>bidNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Favor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1131,14 +1128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,10 +1309,6 @@
   </si>
   <si>
     <t>중복 저장 (")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('item','seller')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2806,6 +2791,26 @@
   </si>
   <si>
     <t>판매마감시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : FavorItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심판매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : FavorSeller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자일련번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3103,13 +3108,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3469,7 +3474,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3527,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -3536,69 +3541,69 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>69</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3609,7 +3614,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -3623,13 +3628,13 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3640,13 +3645,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3657,7 +3662,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -3671,13 +3676,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3688,62 +3693,62 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B12" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>646</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="20" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18">
@@ -3753,59 +3758,59 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -3824,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C05AF-7E12-4759-946A-692EA3490646}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3853,14 +3858,14 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3924,7 +3929,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -3933,7 +3938,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3957,10 +3962,10 @@
         <v>4000</v>
       </c>
       <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" t="s">
         <v>78</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>79</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3968,70 +3973,70 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -4045,58 +4050,58 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4104,13 +4109,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -4121,13 +4126,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" t="s">
         <v>428</v>
-      </c>
-      <c r="C13" t="s">
-        <v>432</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -4135,61 +4140,61 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4197,70 +4202,72 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>685</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="D21" s="18"/>
+        <v>680</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>688</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="b">
         <v>0</v>
@@ -4269,15 +4276,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="D22" s="18"/>
+        <v>680</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>688</v>
+      </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="b">
         <v>0</v>
@@ -4286,36 +4295,36 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B24" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D24" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F24" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4347,11 +4356,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4383,13 +4392,13 @@
     </row>
     <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -4398,44 +4407,44 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4443,10 +4452,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -4504,36 +4513,36 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="E2" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="H2" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="K2" s="35"/>
+      <c r="B2" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="E2" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="H2" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" s="33"/>
       <c r="O2" s="30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -4541,34 +4550,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E3" s="22">
         <v>10</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>540</v>
+        <v>447</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>536</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -4576,58 +4585,58 @@
         <v>20</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E4" s="22">
         <v>20</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="23" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="29"/>
       <c r="P6" s="27" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -4635,82 +4644,82 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H8" s="34"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H9" s="34"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H10" s="34"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
@@ -4718,78 +4727,78 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H12" s="34"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H14" s="34"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="23" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
@@ -4797,118 +4806,118 @@
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="23" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="23" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>510</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K23" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="N23" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>513</v>
-      </c>
       <c r="O23" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
@@ -4916,62 +4925,62 @@
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
@@ -4979,72 +4988,72 @@
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29" s="34"/>
-      <c r="I29" s="33"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31" s="34"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>498</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
@@ -5052,35 +5061,35 @@
     </row>
     <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="34"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35" s="34"/>
-      <c r="I35" s="33"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
@@ -5091,518 +5100,528 @@
     </row>
     <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N36" s="22" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="34"/>
-      <c r="I37" s="33"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38" s="34"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39" s="34"/>
-      <c r="I39" s="33"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L39"/>
     </row>
     <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>487</v>
+        <v>484</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>483</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="34"/>
-      <c r="I41" s="33"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="L41" s="33"/>
+        <v>480</v>
+      </c>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H42" s="34"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="L42" s="33"/>
+        <v>479</v>
+      </c>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H43" s="34"/>
-      <c r="I43" s="33"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="L43" s="33"/>
+        <v>478</v>
+      </c>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H44" s="34"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="L44" s="33"/>
+        <v>429</v>
+      </c>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H45" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>481</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="L45" s="33"/>
+        <v>448</v>
+      </c>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H46" s="34"/>
-      <c r="I46" s="33"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="L46" s="33"/>
+        <v>480</v>
+      </c>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H47" s="34"/>
-      <c r="I47" s="33"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="L47" s="33"/>
+        <v>479</v>
+      </c>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H48" s="34"/>
-      <c r="I48" s="33"/>
+      <c r="I48" s="35"/>
       <c r="J48" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="L48" s="33"/>
+        <v>478</v>
+      </c>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H49" s="34"/>
-      <c r="I49" s="33"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="L49" s="33"/>
+        <v>429</v>
+      </c>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H50" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>476</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H51" s="34"/>
-      <c r="I51" s="33"/>
+      <c r="I51" s="35"/>
       <c r="J51" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H52" s="34"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H53" s="34"/>
-      <c r="I53" s="33"/>
+      <c r="I53" s="35"/>
       <c r="J53" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H54" s="34"/>
-      <c r="I54" s="33"/>
+      <c r="I54" s="35"/>
       <c r="J54" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H55" s="34"/>
-      <c r="I55" s="33"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H56" s="34"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H57" s="34"/>
-      <c r="I57" s="33"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H58" s="34"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H59" s="34"/>
-      <c r="I59" s="33"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H60" s="34"/>
-      <c r="I60" s="33"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H61" s="34"/>
-      <c r="I61" s="33"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H62" s="34"/>
-      <c r="I62" s="33"/>
+      <c r="I62" s="35"/>
       <c r="J62" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H63" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>459</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H64" s="34"/>
-      <c r="I64" s="33"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H65" s="34"/>
-      <c r="I65" s="33"/>
+      <c r="I65" s="35"/>
       <c r="J65" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H66" s="34"/>
-      <c r="I66" s="33"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H67" s="34"/>
-      <c r="I67" s="33"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L67"/>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H68" s="34"/>
-      <c r="I68" s="33"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H69" s="34"/>
-      <c r="I69" s="33"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H70" s="34"/>
-      <c r="I70" s="33"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H71" s="34"/>
-      <c r="I71" s="33"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H72" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>454</v>
+        <v>451</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H73" s="34"/>
-      <c r="I73" s="33"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H74" s="34"/>
-      <c r="I74" s="33"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="L74" s="33" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="L74" s="35" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H75" s="34"/>
-      <c r="I75" s="33"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="23" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="L75" s="33"/>
+        <v>441</v>
+      </c>
+      <c r="L75" s="35"/>
     </row>
     <row r="76" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H76" s="34"/>
-      <c r="I76" s="33"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H77" s="34"/>
-      <c r="I77" s="33"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H78" s="34"/>
-      <c r="I78" s="33"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H79" s="34"/>
-      <c r="I79" s="33"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H80" s="34"/>
-      <c r="I80" s="33"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="23" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L40:L49"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I3:I20"/>
+    <mergeCell ref="H3:H20"/>
+    <mergeCell ref="H21:H31"/>
+    <mergeCell ref="I21:I31"/>
+    <mergeCell ref="H32:H39"/>
+    <mergeCell ref="I32:I39"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -5615,16 +5634,6 @@
     <mergeCell ref="I50:I62"/>
     <mergeCell ref="H63:H71"/>
     <mergeCell ref="I63:I71"/>
-    <mergeCell ref="L40:L49"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I3:I20"/>
-    <mergeCell ref="H3:H20"/>
-    <mergeCell ref="H21:H31"/>
-    <mergeCell ref="I21:I31"/>
-    <mergeCell ref="H32:H39"/>
-    <mergeCell ref="I32:I39"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5658,7 +5667,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5701,7 +5710,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -5710,7 +5719,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5719,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5730,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -5739,7 +5748,7 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5750,7 +5759,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -5790,7 +5799,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -5825,7 +5834,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5836,7 +5845,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -5845,7 +5854,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5868,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -5885,7 +5894,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -5896,34 +5905,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -5931,19 +5940,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5967,14 +5976,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6008,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -6020,18 +6029,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -6042,33 +6051,33 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -6079,13 +6088,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -6096,30 +6105,30 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -6130,16 +6139,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6147,33 +6156,33 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6197,14 +6206,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6238,10 +6247,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -6250,18 +6259,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -6272,70 +6281,70 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6359,14 +6368,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6400,10 +6409,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -6412,18 +6421,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -6434,13 +6443,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -6451,13 +6460,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -6468,64 +6477,64 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
         <v>328</v>
-      </c>
-      <c r="C7" t="s">
-        <v>332</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6549,11 +6558,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6588,10 +6597,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -6600,7 +6609,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6611,7 +6620,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -6628,7 +6637,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -6639,81 +6648,81 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" t="s">
         <v>374</v>
-      </c>
-      <c r="B6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6737,11 +6746,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6776,10 +6785,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -6788,18 +6797,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -6808,47 +6817,47 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6856,10 +6865,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -6867,53 +6876,53 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
         <v>256</v>
       </c>
-      <c r="B9" t="s">
-        <v>257</v>
-      </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
         <v>258</v>
       </c>
-      <c r="B10" t="s">
-        <v>259</v>
-      </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6946,11 +6955,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6982,13 +6991,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>249</v>
       </c>
-      <c r="B3" t="s">
-        <v>250</v>
-      </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -6997,7 +7006,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7005,10 +7014,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>36</v>
@@ -7016,7 +7025,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7024,10 +7033,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>36</v>
@@ -7038,13 +7047,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -7055,13 +7064,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -7072,13 +7081,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -7089,49 +7098,49 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18">
@@ -7141,20 +7150,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G12" s="18"/>
     </row>
@@ -7172,17 +7181,18 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>54</v>
+        <v>689</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
@@ -7193,7 +7203,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -7219,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>40</v>
@@ -7233,10 +7243,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -7262,7 +7272,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -7279,7 +7289,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -7289,38 +7299,30 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>271</v>
-      </c>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="18"/>
     </row>
@@ -7334,6 +7336,166 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07716A2-A4BF-4AFB-99F2-750CFB823B1B}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D4D1A-50D8-4F2C-AC04-93964DE080C1}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -7358,18 +7520,18 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -7377,7 +7539,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -7395,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>25</v>
@@ -7404,19 +7566,19 @@
         <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -7424,10 +7586,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>37</v>
@@ -7436,7 +7598,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7448,36 +7610,36 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
         <v>80</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>81</v>
       </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
       <c r="O3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -7486,16 +7648,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="b">
@@ -7507,13 +7669,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -7524,10 +7686,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -7535,47 +7697,47 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -7606,10 +7768,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>37</v>
@@ -7618,18 +7780,18 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -7640,19 +7802,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
         <v>179</v>
       </c>
-      <c r="D15" t="s">
-        <v>180</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -7660,30 +7822,30 @@
         <v>19</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7696,7 +7858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258ADBF-E590-4588-BBC4-C5B7FD4237CE}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7708,11 +7870,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7747,10 +7909,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -7759,35 +7921,35 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -7798,13 +7960,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -7815,50 +7977,50 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7870,7 +8032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88C87E-3684-4627-8A9C-23D034EE00E1}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7882,11 +8044,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7921,10 +8083,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -7933,18 +8095,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -7955,19 +8117,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7975,10 +8137,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -7986,13 +8148,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -8003,19 +8165,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8027,7 +8189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA71358-18BB-4801-96A6-46744A3F4698}">
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -8047,244 +8209,244 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8292,13 +8454,13 @@
         <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -8306,111 +8468,111 @@
         <v>22</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
         <v>157</v>
       </c>
-      <c r="C46" t="s">
-        <v>158</v>
-      </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="16"/>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -8422,52 +8584,52 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="16"/>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="16"/>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="16"/>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="16"/>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="16"/>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="16"/>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="16"/>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -8475,7 +8637,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -8484,55 +8646,55 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD282D77-3B58-4543-85E7-73C122E60DCD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -8558,133 +8720,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -8692,53 +8854,53 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8765,11 +8927,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -8804,10 +8966,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -8816,24 +8978,24 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8841,10 +9003,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -8852,33 +9014,33 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8906,14 +9068,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -8944,47 +9106,47 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
         <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>225</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -8992,13 +9154,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -9009,13 +9171,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -9026,13 +9188,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9043,31 +9205,31 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -9096,14 +9258,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -9134,30 +9296,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -9168,13 +9330,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -9185,13 +9347,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -9202,13 +9364,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -9219,13 +9381,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9236,20 +9398,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -9278,11 +9440,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9314,30 +9476,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" t="s">
         <v>614</v>
       </c>
-      <c r="B4" t="s">
-        <v>618</v>
-      </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -9348,36 +9510,36 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -9405,11 +9567,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9444,10 +9606,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -9458,30 +9620,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -9489,13 +9651,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -9504,18 +9666,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -9523,13 +9685,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9537,19 +9699,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9573,11 +9735,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9612,10 +9774,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -9624,35 +9786,35 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
         <v>249</v>
       </c>
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -9663,10 +9825,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -9674,36 +9836,36 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -9727,11 +9889,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9766,10 +9928,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -9778,18 +9940,18 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -9800,13 +9962,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
-        <v>250</v>
-      </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -9817,13 +9979,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -9831,47 +9993,47 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
